--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_ManagePostcode.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_ManagePostcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APTProject_WorkSpace\APTproject\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKathiresan-ADM\git\APTAutomation\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -176,9 +176,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>786628</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -242,18 +239,9 @@
     <t>filePathForUploadNTServiceAreaTestDataToUpload</t>
   </si>
   <si>
-    <t>E:/APTProject_WorkSpace/APTproject/src/Add Emergency Numbers.csv</t>
-  </si>
-  <si>
-    <t>E:/APTProject_WorkSpace/APTproject/src/Upload NT Service Area.csv</t>
-  </si>
-  <si>
     <t>filePathForUploadUpdateFletestDataToUpload</t>
   </si>
   <si>
-    <t>E:/APTProject_WorkSpace/APTproject/src/upload update file.csv</t>
-  </si>
-  <si>
     <t>addUploadUpdateFiletestData_column1</t>
   </si>
   <si>
@@ -270,6 +258,18 @@
   </si>
   <si>
     <t>C0101101</t>
+  </si>
+  <si>
+    <t>C:/Users/SKathiresan-ADM/git/APTAutomation/APTAutomationProject/src/Add Emergency Numbers.csv</t>
+  </si>
+  <si>
+    <t>7876281</t>
+  </si>
+  <si>
+    <t>C:/Users/SKathiresan-ADM/git/APTAutomation/APTAutomationProject/src/Upload NT Service Area.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/SKathiresan-ADM/git/APTAutomation/APTAutomationProject/src/upload update file.csv</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,12 +634,12 @@
     <col min="28" max="28" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="82.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="96.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="94.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -735,28 +735,28 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -851,28 +851,28 @@
         <v>48</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -883,19 +883,19 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>37</v>
@@ -913,16 +913,16 @@
         <v>41</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="Q3" s="2">
         <v>126</v>
@@ -958,37 +958,37 @@
         <v>30</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="AE3" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="AI3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_ManagePostcode.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_ManagePostcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKathiresan-ADM\git\APTAutomation\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>Run</t>
   </si>
@@ -242,47 +242,56 @@
     <t>filePathForUploadUpdateFletestDataToUpload</t>
   </si>
   <si>
-    <t>addUploadUpdateFiletestData_column1</t>
-  </si>
-  <si>
-    <t>addUploadUpdateFiletestData_column2</t>
-  </si>
-  <si>
     <t>e6222100</t>
   </si>
   <si>
     <t>C0101100</t>
   </si>
   <si>
-    <t>e6222101</t>
-  </si>
-  <si>
-    <t>C0101101</t>
-  </si>
-  <si>
-    <t>C:/Users/SKathiresan-ADM/git/APTAutomation/APTAutomationProject/src/Add Emergency Numbers.csv</t>
-  </si>
-  <si>
     <t>7876281</t>
   </si>
   <si>
-    <t>C:/Users/SKathiresan-ADM/git/APTAutomation/APTAutomationProject/src/Upload NT Service Area.csv</t>
-  </si>
-  <si>
-    <t>C:/Users/SKathiresan-ADM/git/APTAutomation/APTAutomationProject/src/upload update file.csv</t>
+    <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/Add Emergency Numbers.csv</t>
+  </si>
+  <si>
+    <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/Upload NT Service Area.csv</t>
+  </si>
+  <si>
+    <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/upload update file.csv</t>
+  </si>
+  <si>
+    <t>addUploadUpdateFiletestData_dumyCode</t>
+  </si>
+  <si>
+    <t>addUploadUpdateFiletestData_providerMapping</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -311,12 +320,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +611,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +651,8 @@
     <col min="34" max="34" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="96.5703125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="94.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -753,10 +765,10 @@
         <v>71</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -808,8 +820,8 @@
       <c r="P2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="2">
-        <v>126</v>
+      <c r="Q2" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>46</v>
@@ -851,7 +863,7 @@
         <v>48</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>63</v>
@@ -863,16 +875,16 @@
         <v>65</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -883,7 +895,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>50</v>
@@ -924,8 +936,8 @@
       <c r="P3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="2">
-        <v>126</v>
+      <c r="Q3" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>46</v>
@@ -967,7 +979,7 @@
         <v>59</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>66</v>
@@ -979,16 +991,16 @@
         <v>68</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_ManagePostcode.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_ManagePostcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_Phase1_Automation_Project_Deliverables\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
   <si>
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>EmergencyAreaIDSub</t>
   </si>
   <si>
@@ -122,21 +119,12 @@
     <t>APT_VoiceService</t>
   </si>
   <si>
-    <t>786626</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>1016</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>Xyz</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>JHY</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>128</t>
   </si>
   <si>
@@ -215,15 +200,6 @@
     <t>addEmergencyNumberTestata_ActualProviderValue</t>
   </si>
   <si>
-    <t>U9936</t>
-  </si>
-  <si>
-    <t>A379</t>
-  </si>
-  <si>
-    <t>I9038</t>
-  </si>
-  <si>
     <t>U9937</t>
   </si>
   <si>
@@ -242,24 +218,9 @@
     <t>filePathForUploadUpdateFletestDataToUpload</t>
   </si>
   <si>
-    <t>e6222100</t>
-  </si>
-  <si>
-    <t>C0101100</t>
-  </si>
-  <si>
     <t>7876281</t>
   </si>
   <si>
-    <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/Add Emergency Numbers.csv</t>
-  </si>
-  <si>
-    <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/Upload NT Service Area.csv</t>
-  </si>
-  <si>
-    <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/upload update file.csv</t>
-  </si>
-  <si>
     <t>addUploadUpdateFiletestData_dumyCode</t>
   </si>
   <si>
@@ -273,6 +234,69 @@
   </si>
   <si>
     <t>126</t>
+  </si>
+  <si>
+    <t>url for the Product</t>
+  </si>
+  <si>
+    <t>D:/APT_Phase1_Automation_Project_Deliverables/APTAutomationProject/src/Add Emergency Numbers.csv</t>
+  </si>
+  <si>
+    <t>D:/APT_Phase1_Automation_Project_Deliverables/APTAutomationProject/src/upload update file.csv</t>
+  </si>
+  <si>
+    <t>D:/APT_Phase1_Automation_Project_Deliverables/APTAutomationProject/src/Upload NT Service Area.csv</t>
+  </si>
+  <si>
+    <t>7876282</t>
+  </si>
+  <si>
+    <t>7876283</t>
+  </si>
+  <si>
+    <t>7876284</t>
+  </si>
+  <si>
+    <t>7876285</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
   </si>
 </sst>
 </file>
@@ -320,13 +344,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -608,15 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -656,351 +677,699 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>77</v>
+      <c r="AI2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>72</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="N4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="K5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="AC5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="M6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="S6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="AD6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AG6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_ManagePostcode.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_ManagePostcode.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="PostCode" sheetId="1" r:id="rId1"/>
+    <sheet name="unique column Names" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
   <si>
     <t>Run</t>
   </si>
@@ -297,6 +298,15 @@
   </si>
   <si>
     <t>201</t>
+  </si>
+  <si>
+    <t>uniqueColumn</t>
+  </si>
+  <si>
+    <t>Downloadspath</t>
+  </si>
+  <si>
+    <t>C:\Users\SSUPRAJA-adm\Downloads</t>
   </si>
 </sst>
 </file>
@@ -318,7 +328,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +360,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,9 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -674,9 +693,10 @@
     <col min="36" max="36" width="94.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -791,8 +811,11 @@
       <c r="AL1" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AM1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -907,8 +930,11 @@
       <c r="AL2" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="AM2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1023,8 +1049,11 @@
       <c r="AL3" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="AM3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1139,8 +1168,11 @@
       <c r="AL4" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="AM4" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1255,8 +1287,11 @@
       <c r="AL5" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="AM5" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1370,10 +1405,39 @@
       </c>
       <c r="AL6" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>